--- a/Main/Combining DWR with B132 with MWD.xlsx
+++ b/Main/Combining DWR with B132 with MWD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armen\Desktop\Drought Indicators - SoCal\Main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A985700D-1ADB-4A9C-B8BD-F24F38A27C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6468929B-62E5-41D6-840E-94353707E164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="b132" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -27178,8 +27178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A84AE7-D94A-4167-A362-DE7FA582181B}">
   <dimension ref="C2:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G36"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -27227,7 +27227,7 @@
         <v>1991</v>
       </c>
       <c r="E3" s="2">
-        <v>0.25555555555555498</v>
+        <v>7.7777777777777696E-2</v>
       </c>
       <c r="F3" s="2">
         <v>0.23703703703703699</v>
@@ -27257,7 +27257,7 @@
         <v>1992</v>
       </c>
       <c r="E4" s="2">
-        <v>0.42499999999999999</v>
+        <v>0.13611111111111099</v>
       </c>
       <c r="F4" s="2">
         <v>0.194444444444444</v>
@@ -27287,7 +27287,7 @@
         <v>1993</v>
       </c>
       <c r="E5" s="2">
-        <v>0.76944444444444404</v>
+        <v>0.36111111111111099</v>
       </c>
       <c r="F5" s="2">
         <v>0.61388888888888804</v>
@@ -27317,7 +27317,7 @@
         <v>1994</v>
       </c>
       <c r="E6" s="2">
-        <v>0.75555555555555498</v>
+        <v>0.28888888888888797</v>
       </c>
       <c r="F6" s="2">
         <v>0.219444444444444</v>
@@ -27347,7 +27347,7 @@
         <v>1995</v>
       </c>
       <c r="E7" s="2">
-        <v>0.76944444444444404</v>
+        <v>0.344444444444444</v>
       </c>
       <c r="F7" s="2">
         <v>0.87222222222222201</v>
@@ -27377,7 +27377,7 @@
         <v>1996</v>
       </c>
       <c r="E8" s="2">
-        <v>0.81111111111111101</v>
+        <v>0.33055555555555499</v>
       </c>
       <c r="F8" s="2">
         <v>0.6</v>
@@ -27407,7 +27407,7 @@
         <v>1997</v>
       </c>
       <c r="E9" s="2">
-        <v>0.594444444444444</v>
+        <v>0.19999999999999901</v>
       </c>
       <c r="F9" s="2">
         <v>0.73611111111111105</v>
@@ -27437,7 +27437,7 @@
         <v>1998</v>
       </c>
       <c r="E10" s="2">
-        <v>0.69722222222222197</v>
+        <v>0.30277777777777698</v>
       </c>
       <c r="F10" s="2">
         <v>0.77500000000000002</v>
@@ -27467,7 +27467,7 @@
         <v>1999</v>
       </c>
       <c r="E11" s="2">
-        <v>0.75555555555555498</v>
+        <v>0.28333333333333299</v>
       </c>
       <c r="F11" s="2">
         <v>0.655555555555555</v>
@@ -27497,7 +27497,7 @@
         <v>2000</v>
       </c>
       <c r="E12" s="2">
-        <v>0.211111111111111</v>
+        <v>0.28333333333333299</v>
       </c>
       <c r="F12" s="2">
         <v>0.43055555555555503</v>
@@ -27527,7 +27527,7 @@
         <v>2001</v>
       </c>
       <c r="E13" s="2">
-        <v>0.28333333333333299</v>
+        <v>0.52777777777777701</v>
       </c>
       <c r="F13" s="2">
         <v>0.52500000000000002</v>
@@ -27557,7 +27557,7 @@
         <v>2002</v>
       </c>
       <c r="E14" s="2">
-        <v>0.47777777777777702</v>
+        <v>0.69166666666666599</v>
       </c>
       <c r="F14" s="2">
         <v>0.47222222222222199</v>
@@ -27587,7 +27587,7 @@
         <v>2003</v>
       </c>
       <c r="E15" s="2">
-        <v>0.51944444444444404</v>
+        <v>0.719444444444444</v>
       </c>
       <c r="F15" s="2">
         <v>0.61388888888888804</v>
@@ -27617,7 +27617,7 @@
         <v>2004</v>
       </c>
       <c r="E16" s="2">
-        <v>0.35</v>
+        <v>0.59722222222222199</v>
       </c>
       <c r="F16" s="2">
         <v>0.452777777777777</v>
@@ -27647,7 +27647,7 @@
         <v>2005</v>
       </c>
       <c r="E17" s="2">
-        <v>0.73333333333333295</v>
+        <v>0.85833333333333295</v>
       </c>
       <c r="F17" s="2">
         <v>0.87777777777777699</v>
@@ -27677,7 +27677,7 @@
         <v>2006</v>
       </c>
       <c r="E18" s="2">
-        <v>0.9</v>
+        <v>0.96388888888888902</v>
       </c>
       <c r="F18" s="2">
         <v>0.85277777777777697</v>
@@ -27707,7 +27707,7 @@
         <v>2007</v>
       </c>
       <c r="E19" s="2">
-        <v>0.655555555555555</v>
+        <v>0.82777777777777695</v>
       </c>
       <c r="F19" s="2">
         <v>0.358333333333333</v>
@@ -27737,7 +27737,7 @@
         <v>2008</v>
       </c>
       <c r="E20" s="2">
-        <v>0.51666666666666605</v>
+        <v>0.72222222222222199</v>
       </c>
       <c r="F20" s="2">
         <v>0.35277777777777702</v>
@@ -27767,7 +27767,7 @@
         <v>2009</v>
       </c>
       <c r="E21" s="2">
-        <v>0.17777777777777701</v>
+        <v>0.405555555555555</v>
       </c>
       <c r="F21" s="2">
         <v>0.46111111111111103</v>
@@ -27797,7 +27797,7 @@
         <v>2010</v>
       </c>
       <c r="E22" s="2">
-        <v>0.18611111111111101</v>
+        <v>0.41666666666666602</v>
       </c>
       <c r="F22" s="2">
         <v>0.66111111111111098</v>
@@ -27827,7 +27827,7 @@
         <v>2011</v>
       </c>
       <c r="E23" s="2">
-        <v>0.76111111111111096</v>
+        <v>0.875</v>
       </c>
       <c r="F23" s="2">
         <v>0.83333333333333304</v>
@@ -27857,7 +27857,7 @@
         <v>2012</v>
       </c>
       <c r="E24" s="2">
-        <v>0.80277777777777704</v>
+        <v>0.9</v>
       </c>
       <c r="F24" s="2">
         <v>0.42777777777777698</v>
@@ -27887,7 +27887,7 @@
         <v>2013</v>
       </c>
       <c r="E25" s="2">
-        <v>0.391666666666666</v>
+        <v>0.61666666666666603</v>
       </c>
       <c r="F25" s="2">
         <v>0.28333333333333299</v>
@@ -27917,7 +27917,7 @@
         <v>2014</v>
       </c>
       <c r="E26" s="2">
-        <v>0.19166666666666601</v>
+        <v>0.35555555555555501</v>
       </c>
       <c r="F26" s="2">
         <v>0.11944444444444401</v>
@@ -27947,7 +27947,7 @@
         <v>2015</v>
       </c>
       <c r="E27" s="2">
-        <v>4.1666666666666602E-2</v>
+        <v>6.3888888888888801E-2</v>
       </c>
       <c r="F27" s="2">
         <v>6.1111111111110998E-2</v>
@@ -27977,7 +27977,7 @@
         <v>2016</v>
       </c>
       <c r="E28" s="2">
-        <v>7.2222222222222104E-2</v>
+        <v>0.15</v>
       </c>
       <c r="F28" s="2">
         <v>0.297222222222222</v>
@@ -28007,7 +28007,7 @@
         <v>2017</v>
       </c>
       <c r="E29" s="2">
-        <v>0.405555555555555</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="F29" s="2">
         <v>0.74166666666666603</v>
@@ -28037,7 +28037,7 @@
         <v>2018</v>
       </c>
       <c r="E30" s="2">
-        <v>0.45555555555555499</v>
+        <v>0.68611111111111101</v>
       </c>
       <c r="F30" s="2">
         <v>0.50277777777777699</v>
@@ -28067,7 +28067,7 @@
         <v>2019</v>
       </c>
       <c r="E31" s="2">
-        <v>0.66388888888888797</v>
+        <v>0.81111111111111101</v>
       </c>
       <c r="F31" s="2">
         <v>0.75555555555555498</v>
@@ -28097,7 +28097,7 @@
         <v>2020</v>
       </c>
       <c r="E32" s="2">
-        <v>0.75277777777777699</v>
+        <v>0.875</v>
       </c>
       <c r="F32" s="2">
         <v>0.52777777777777701</v>
@@ -28127,7 +28127,7 @@
         <v>2021</v>
       </c>
       <c r="E33" s="2">
-        <v>0.40277777777777701</v>
+        <v>0.6</v>
       </c>
       <c r="F33" s="2">
         <v>0.16111111111111101</v>
@@ -28157,7 +28157,7 @@
         <v>2022</v>
       </c>
       <c r="E34" s="2">
-        <v>0.133333333333333</v>
+        <v>0.327777777777777</v>
       </c>
       <c r="F34" s="2">
         <v>0.30277777777777698</v>
@@ -28187,7 +28187,7 @@
         <v>2023</v>
       </c>
       <c r="E35" s="2">
-        <v>0.391666666666666</v>
+        <v>0.57222222222222197</v>
       </c>
       <c r="F35" s="2">
         <v>0.84722222222222199</v>
@@ -28250,7 +28250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF8BEF3-B28D-4A4E-9A80-C596EDA392AA}">
   <dimension ref="A1:Z89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="F18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="V39" sqref="V39"/>
     </sheetView>
   </sheetViews>
